--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema4a-Plxnb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H2">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I2">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J2">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N2">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O2">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P2">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q2">
-        <v>107.9788779883311</v>
+        <v>251.2474720191529</v>
       </c>
       <c r="R2">
-        <v>971.80990189498</v>
+        <v>2261.227248172376</v>
       </c>
       <c r="S2">
-        <v>0.009587178202907019</v>
+        <v>0.01581830480171839</v>
       </c>
       <c r="T2">
-        <v>0.009587178202907018</v>
+        <v>0.01581830480171839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H3">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I3">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J3">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
         <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q3">
-        <v>339.3649232383045</v>
+        <v>527.7794599155743</v>
       </c>
       <c r="R3">
-        <v>3054.28430914474</v>
+        <v>4750.015139240169</v>
       </c>
       <c r="S3">
-        <v>0.03013137435316827</v>
+        <v>0.03322849896931281</v>
       </c>
       <c r="T3">
-        <v>0.03013137435316827</v>
+        <v>0.0332284989693128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H4">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I4">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J4">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N4">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q4">
-        <v>525.2954847891779</v>
+        <v>803.9931188134028</v>
       </c>
       <c r="R4">
-        <v>4727.659363102601</v>
+        <v>7235.938069320625</v>
       </c>
       <c r="S4">
-        <v>0.04663969024016452</v>
+        <v>0.05061865144221273</v>
       </c>
       <c r="T4">
-        <v>0.04663969024016451</v>
+        <v>0.05061865144221272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H5">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I5">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J5">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N5">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O5">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P5">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q5">
-        <v>119.3664737635555</v>
+        <v>181.383013962584</v>
       </c>
       <c r="R5">
-        <v>1074.298263872</v>
+        <v>1632.447125663256</v>
       </c>
       <c r="S5">
-        <v>0.01059825473966772</v>
+        <v>0.01141970415724532</v>
       </c>
       <c r="T5">
-        <v>0.01059825473966772</v>
+        <v>0.01141970415724532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.242326666666667</v>
+        <v>12.81844533333333</v>
       </c>
       <c r="H6">
-        <v>24.72698</v>
+        <v>38.455336</v>
       </c>
       <c r="I6">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="J6">
-        <v>0.1455255597722841</v>
+        <v>0.1651242884662064</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N6">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O6">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P6">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q6">
-        <v>547.0256976801735</v>
+        <v>858.3217194007192</v>
       </c>
       <c r="R6">
-        <v>4923.231279121561</v>
+        <v>7724.895474606472</v>
       </c>
       <c r="S6">
-        <v>0.04856906223637655</v>
+        <v>0.05403912909571714</v>
       </c>
       <c r="T6">
-        <v>0.04856906223637655</v>
+        <v>0.05403912909571713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>48.665764</v>
       </c>
       <c r="I7">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J7">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N7">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O7">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P7">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q7">
-        <v>212.5158265653515</v>
+        <v>317.9571796975249</v>
       </c>
       <c r="R7">
-        <v>1912.642439088164</v>
+        <v>2861.614617277723</v>
       </c>
       <c r="S7">
-        <v>0.01886875598429801</v>
+        <v>0.02001828532613768</v>
       </c>
       <c r="T7">
-        <v>0.01886875598429801</v>
+        <v>0.02001828532613768</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>48.665764</v>
       </c>
       <c r="I8">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J8">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
         <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q8">
-        <v>667.9122668515703</v>
+        <v>667.9122668515702</v>
       </c>
       <c r="R8">
-        <v>6011.210401664131</v>
+        <v>6011.210401664132</v>
       </c>
       <c r="S8">
-        <v>0.05930228249737493</v>
+        <v>0.04205112884502738</v>
       </c>
       <c r="T8">
-        <v>0.05930228249737491</v>
+        <v>0.04205112884502737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>48.665764</v>
       </c>
       <c r="I9">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J9">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N9">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q9">
-        <v>1033.846676505409</v>
+        <v>1017.46450421853</v>
       </c>
       <c r="R9">
-        <v>9304.620088548681</v>
+        <v>9157.180537966775</v>
       </c>
       <c r="S9">
-        <v>0.09179269600496906</v>
+        <v>0.06405860931978292</v>
       </c>
       <c r="T9">
-        <v>0.09179269600496905</v>
+        <v>0.06405860931978291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>48.665764</v>
       </c>
       <c r="I10">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J10">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N10">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O10">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P10">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q10">
-        <v>234.9280276721778</v>
+        <v>229.542733708316</v>
       </c>
       <c r="R10">
-        <v>2114.3522490496</v>
+        <v>2065.884603374844</v>
       </c>
       <c r="S10">
-        <v>0.02085868003179323</v>
+        <v>0.01445179486837196</v>
       </c>
       <c r="T10">
-        <v>0.02085868003179323</v>
+        <v>0.01445179486837196</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>48.665764</v>
       </c>
       <c r="I11">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="J11">
-        <v>0.2864123539488393</v>
+        <v>0.2089670898510501</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N11">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O11">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P11">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q11">
-        <v>1076.614431088579</v>
+        <v>1086.218105919803</v>
       </c>
       <c r="R11">
-        <v>9689.52987979721</v>
+        <v>9775.962953278227</v>
       </c>
       <c r="S11">
-        <v>0.0955899394304041</v>
+        <v>0.06838727149173013</v>
       </c>
       <c r="T11">
-        <v>0.09558993943040409</v>
+        <v>0.06838727149173013</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H12">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I12">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J12">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N12">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O12">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P12">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q12">
-        <v>131.7622855019266</v>
+        <v>569.1114319114791</v>
       </c>
       <c r="R12">
-        <v>1185.86056951734</v>
+        <v>5122.002887203312</v>
       </c>
       <c r="S12">
-        <v>0.01169884828462281</v>
+        <v>0.03583072109649692</v>
       </c>
       <c r="T12">
-        <v>0.01169884828462281</v>
+        <v>0.0358307210964969</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H13">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I13">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J13">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
         <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q13">
-        <v>414.1133778950466</v>
+        <v>1195.495905897602</v>
       </c>
       <c r="R13">
-        <v>3727.020401055419</v>
+        <v>10759.46315307842</v>
       </c>
       <c r="S13">
-        <v>0.03676810524477418</v>
+        <v>0.07526729911635939</v>
       </c>
       <c r="T13">
-        <v>0.03676810524477418</v>
+        <v>0.07526729911635938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H14">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I14">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J14">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N14">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q14">
-        <v>640.9969702328667</v>
+        <v>1821.159319206965</v>
       </c>
       <c r="R14">
-        <v>5768.972732095801</v>
+        <v>16390.43387286269</v>
       </c>
       <c r="S14">
-        <v>0.05691253970809073</v>
+        <v>0.1146584798334198</v>
       </c>
       <c r="T14">
-        <v>0.05691253970809073</v>
+        <v>0.1146584798334197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H15">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I15">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J15">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N15">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O15">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P15">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q15">
-        <v>145.6581109973333</v>
+        <v>410.858449524208</v>
       </c>
       <c r="R15">
-        <v>1310.922998976</v>
+        <v>3697.726045717872</v>
       </c>
       <c r="S15">
-        <v>0.01293262435067305</v>
+        <v>0.02586726199752537</v>
       </c>
       <c r="T15">
-        <v>0.01293262435067305</v>
+        <v>0.02586726199752537</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.05778</v>
+        <v>29.03561066666667</v>
       </c>
       <c r="H16">
-        <v>30.17334</v>
+        <v>87.106832</v>
       </c>
       <c r="I16">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102598</v>
       </c>
       <c r="J16">
-        <v>0.1775789924082702</v>
+        <v>0.3740301126102597</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N16">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O16">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P16">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q16">
-        <v>667.5134757597201</v>
+        <v>1944.221364072585</v>
       </c>
       <c r="R16">
-        <v>6007.621281837481</v>
+        <v>17497.99227665326</v>
       </c>
       <c r="S16">
-        <v>0.05926687482010944</v>
+        <v>0.1224063505664583</v>
       </c>
       <c r="T16">
-        <v>0.05926687482010944</v>
+        <v>0.1224063505664583</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H17">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I17">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J17">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N17">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O17">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P17">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q17">
-        <v>31.96934147788056</v>
+        <v>75.82035599898468</v>
       </c>
       <c r="R17">
-        <v>287.724073300925</v>
+        <v>682.3832039908621</v>
       </c>
       <c r="S17">
-        <v>0.002838478964479976</v>
+        <v>0.004773578383607814</v>
       </c>
       <c r="T17">
-        <v>0.002838478964479976</v>
+        <v>0.004773578383607813</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H18">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I18">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J18">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N18">
         <v>123.520313</v>
       </c>
       <c r="O18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P18">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q18">
-        <v>100.4758830499472</v>
+        <v>159.2709618853407</v>
       </c>
       <c r="R18">
-        <v>904.282947449525</v>
+        <v>1433.438656968066</v>
       </c>
       <c r="S18">
-        <v>0.008921005791506625</v>
+        <v>0.01002755013182037</v>
       </c>
       <c r="T18">
-        <v>0.008921005791506623</v>
+        <v>0.01002755013182037</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H19">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I19">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J19">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N19">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P19">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q19">
-        <v>155.5244047991389</v>
+        <v>242.625503847932</v>
       </c>
       <c r="R19">
-        <v>1399.71964319225</v>
+        <v>2183.629534631389</v>
       </c>
       <c r="S19">
-        <v>0.01380862823812194</v>
+        <v>0.01527547378564079</v>
       </c>
       <c r="T19">
-        <v>0.01380862823812194</v>
+        <v>0.01527547378564079</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H20">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I20">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J20">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N20">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O20">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P20">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q20">
-        <v>35.34087065777778</v>
+        <v>54.73696742215801</v>
       </c>
       <c r="R20">
-        <v>318.06783592</v>
+        <v>492.6327067994221</v>
       </c>
       <c r="S20">
-        <v>0.00313782872311952</v>
+        <v>0.00344618804578229</v>
       </c>
       <c r="T20">
-        <v>0.003137828723119519</v>
+        <v>0.00344618804578229</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.440308333333334</v>
+        <v>3.868294000000001</v>
       </c>
       <c r="H21">
-        <v>7.320925000000001</v>
+        <v>11.604882</v>
       </c>
       <c r="I21">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025044</v>
       </c>
       <c r="J21">
-        <v>0.04308579974893452</v>
+        <v>0.04983048082025043</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N21">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O21">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P21">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q21">
-        <v>161.9580759878167</v>
+        <v>259.0205497536793</v>
       </c>
       <c r="R21">
-        <v>1457.62268389035</v>
+        <v>2331.184947783114</v>
       </c>
       <c r="S21">
-        <v>0.01437985803170646</v>
+        <v>0.01630769047339917</v>
       </c>
       <c r="T21">
-        <v>0.01437985803170646</v>
+        <v>0.01630769047339917</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H22">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I22">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J22">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N22">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O22">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P22">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q22">
-        <v>257.7661964959136</v>
+        <v>307.429372119397</v>
       </c>
       <c r="R22">
-        <v>2319.895768463222</v>
+        <v>2766.864349074573</v>
       </c>
       <c r="S22">
-        <v>0.0228864247020508</v>
+        <v>0.0193554644514585</v>
       </c>
       <c r="T22">
-        <v>0.02288642470205079</v>
+        <v>0.01935546445145849</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H23">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I23">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J23">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N23">
         <v>123.520313</v>
       </c>
       <c r="O23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P23">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q23">
-        <v>810.1288614678763</v>
+        <v>645.797176287571</v>
       </c>
       <c r="R23">
-        <v>7291.159753210885</v>
+        <v>5812.174586588139</v>
       </c>
       <c r="S23">
-        <v>0.0719293430984719</v>
+        <v>0.04065878351933082</v>
       </c>
       <c r="T23">
-        <v>0.07192934309847188</v>
+        <v>0.04065878351933081</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H24">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I24">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J24">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N24">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P24">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q24">
-        <v>1253.980608737349</v>
+        <v>983.775469335978</v>
       </c>
       <c r="R24">
-        <v>11285.82547863614</v>
+        <v>8853.979224023802</v>
       </c>
       <c r="S24">
-        <v>0.1113378447982575</v>
+        <v>0.06193757933303218</v>
       </c>
       <c r="T24">
-        <v>0.1113378447982575</v>
+        <v>0.06193757933303217</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H25">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I25">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J25">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N25">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O25">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P25">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q25">
-        <v>284.9505616689777</v>
+        <v>221.942396663757</v>
       </c>
       <c r="R25">
-        <v>2564.5550550208</v>
+        <v>1997.481569973813</v>
       </c>
       <c r="S25">
-        <v>0.02530005742451</v>
+        <v>0.0139732847882488</v>
       </c>
       <c r="T25">
-        <v>0.02530005742451</v>
+        <v>0.0139732847882488</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>19.67600733333333</v>
+        <v>15.684801</v>
       </c>
       <c r="H26">
-        <v>59.028022</v>
+        <v>47.05440299999999</v>
       </c>
       <c r="I26">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522334</v>
       </c>
       <c r="J26">
-        <v>0.3473972941216719</v>
+        <v>0.2020480282522333</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N26">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O26">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P26">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q26">
-        <v>1305.854775521743</v>
+        <v>1050.252586229759</v>
       </c>
       <c r="R26">
-        <v>11752.69297969569</v>
+        <v>9452.273276067828</v>
       </c>
       <c r="S26">
-        <v>0.1159436240983818</v>
+        <v>0.06612291616016304</v>
       </c>
       <c r="T26">
-        <v>0.1159436240983818</v>
+        <v>0.06612291616016303</v>
       </c>
     </row>
   </sheetData>
